--- a/Coaches_carreers/Coaches/Marcelo Bielsa.xlsx
+++ b/Coaches_carreers/Coaches/Marcelo Bielsa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE260"/>
+  <dimension ref="A1:AF260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,11 @@
           <t>ProbA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -694,6 +699,11 @@
       <c r="AE2" t="n">
         <v>0.1432413305024769</v>
       </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +805,11 @@
       <c r="AE3" t="n">
         <v>0.3233194009056078</v>
       </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -895,6 +910,11 @@
       </c>
       <c r="AE4" t="n">
         <v>0.2464052287581699</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -997,6 +1017,11 @@
       <c r="AE5" t="n">
         <v>0.1598952487841377</v>
       </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1098,6 +1123,11 @@
       <c r="AE6" t="n">
         <v>0.2812742812742813</v>
       </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1199,6 +1229,11 @@
       <c r="AE7" t="n">
         <v>0.3125</v>
       </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1300,6 +1335,11 @@
       <c r="AE8" t="n">
         <v>0.2099104637627335</v>
       </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1401,6 +1441,11 @@
       <c r="AE9" t="n">
         <v>0.1781769793745842</v>
       </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1502,6 +1547,11 @@
       <c r="AE10" t="n">
         <v>0.3267195767195767</v>
       </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1603,6 +1653,11 @@
       <c r="AE11" t="n">
         <v>0.3433857808857809</v>
       </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1704,6 +1759,11 @@
       <c r="AE12" t="n">
         <v>0.7981963391799457</v>
       </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1805,6 +1865,11 @@
       <c r="AE13" t="n">
         <v>0.2302418349538768</v>
       </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1906,6 +1971,11 @@
       <c r="AE14" t="n">
         <v>0.1113756613756614</v>
       </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2007,6 +2077,11 @@
       <c r="AE15" t="n">
         <v>0.3777777777777777</v>
       </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2108,6 +2183,11 @@
       <c r="AE16" t="n">
         <v>0.1044973544973545</v>
       </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2209,6 +2289,11 @@
       <c r="AE17" t="n">
         <v>0.09668717371475148</v>
       </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2310,6 +2395,11 @@
       <c r="AE18" t="n">
         <v>0.3414141414141413</v>
       </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2411,6 +2501,11 @@
       <c r="AE19" t="n">
         <v>0.1598952487841377</v>
       </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2512,6 +2607,11 @@
       <c r="AE20" t="n">
         <v>0.04871794871794871</v>
       </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2613,6 +2713,11 @@
       <c r="AE21" t="n">
         <v>0.3981676003734828</v>
       </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2714,6 +2819,11 @@
       <c r="AE22" t="n">
         <v>0.1787503440682632</v>
       </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2815,6 +2925,11 @@
       <c r="AE23" t="n">
         <v>0.3767857142857143</v>
       </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2916,6 +3031,11 @@
       <c r="AE24" t="n">
         <v>0.2173215369936682</v>
       </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3017,6 +3137,11 @@
       <c r="AE25" t="n">
         <v>0.290954415954416</v>
       </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3118,6 +3243,11 @@
       <c r="AE26" t="n">
         <v>0.1460905349794238</v>
       </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3219,6 +3349,11 @@
       <c r="AE27" t="n">
         <v>0.3783882783882783</v>
       </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3320,6 +3455,11 @@
       <c r="AE28" t="n">
         <v>0.3021997329397709</v>
       </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3421,6 +3561,11 @@
       <c r="AE29" t="n">
         <v>0.201058201058201</v>
       </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3522,6 +3667,11 @@
       <c r="AE30" t="n">
         <v>0.08823529411764706</v>
       </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3623,6 +3773,11 @@
       <c r="AE31" t="n">
         <v>0.02774202774202774</v>
       </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3724,6 +3879,11 @@
       <c r="AE32" t="n">
         <v>0.290954415954416</v>
       </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3825,6 +3985,11 @@
       <c r="AE33" t="n">
         <v>0.3649616617632721</v>
       </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3926,6 +4091,11 @@
       <c r="AE34" t="n">
         <v>0.1793465700178591</v>
       </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4027,6 +4197,11 @@
       <c r="AE35" t="n">
         <v>0.4788359788359788</v>
       </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4128,6 +4303,11 @@
       <c r="AE36" t="n">
         <v>0.4341577540106951</v>
       </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4229,6 +4409,11 @@
       <c r="AE37" t="n">
         <v>0.6301742919389979</v>
       </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4330,6 +4515,11 @@
       <c r="AE38" t="n">
         <v>0.201058201058201</v>
       </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4431,6 +4621,11 @@
       <c r="AE39" t="n">
         <v>0.1588978961590427</v>
       </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4532,6 +4727,11 @@
       <c r="AE40" t="n">
         <v>0.2146760343481655</v>
       </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4633,6 +4833,11 @@
       <c r="AE41" t="n">
         <v>0.1628787878787879</v>
       </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4733,6 +4938,11 @@
       </c>
       <c r="AE42" t="n">
         <v>0.2464052287581699</v>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -4835,6 +5045,11 @@
       <c r="AE43" t="n">
         <v>0.2921122994652407</v>
       </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4936,6 +5151,11 @@
       <c r="AE44" t="n">
         <v>0.2921122994652407</v>
       </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5037,6 +5257,11 @@
       <c r="AE45" t="n">
         <v>0.312588803637397</v>
       </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5138,6 +5363,11 @@
       <c r="AE46" t="n">
         <v>0.2099104637627335</v>
       </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5239,6 +5469,11 @@
       <c r="AE47" t="n">
         <v>0.1610648394274125</v>
       </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5340,6 +5575,11 @@
       <c r="AE48" t="n">
         <v>0.2166452166452167</v>
       </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5441,6 +5681,11 @@
       <c r="AE49" t="n">
         <v>0.3267195767195767</v>
       </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5542,6 +5787,11 @@
       <c r="AE50" t="n">
         <v>0.3361344537815126</v>
       </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5643,6 +5893,11 @@
       <c r="AE51" t="n">
         <v>0.06232193732193732</v>
       </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5744,6 +5999,11 @@
       <c r="AE52" t="n">
         <v>0.1793465700178591</v>
       </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5845,6 +6105,11 @@
       <c r="AE53" t="n">
         <v>0.02593563419251493</v>
       </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5946,6 +6211,11 @@
       <c r="AE54" t="n">
         <v>0.2289617486338798</v>
       </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6047,6 +6317,11 @@
       <c r="AE55" t="n">
         <v>0.3345004668534081</v>
       </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6148,6 +6423,11 @@
       <c r="AE56" t="n">
         <v>0.2146760343481655</v>
       </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6249,6 +6529,11 @@
       <c r="AE57" t="n">
         <v>0.2925084175084176</v>
       </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6350,6 +6635,11 @@
       <c r="AE58" t="n">
         <v>0.2302418349538768</v>
       </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6451,6 +6741,11 @@
       <c r="AE59" t="n">
         <v>0.2302418349538768</v>
       </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6552,6 +6847,11 @@
       <c r="AE60" t="n">
         <v>0.3997701644760469</v>
       </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6653,6 +6953,11 @@
       <c r="AE61" t="n">
         <v>0.3355311355311356</v>
       </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6754,6 +7059,11 @@
       <c r="AE62" t="n">
         <v>0.1884133905734149</v>
       </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6855,6 +7165,11 @@
       <c r="AE63" t="n">
         <v>0.217989417989418</v>
       </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6956,6 +7271,11 @@
       <c r="AE64" t="n">
         <v>0.3021997329397709</v>
       </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7057,6 +7377,11 @@
       <c r="AE65" t="n">
         <v>0.3008954579782069</v>
       </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7158,6 +7483,11 @@
       <c r="AE66" t="n">
         <v>0.348874364560639</v>
       </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7259,6 +7589,11 @@
       <c r="AE67" t="n">
         <v>0.312588803637397</v>
       </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7360,6 +7695,11 @@
       <c r="AE68" t="n">
         <v>0.1884133905734149</v>
       </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7461,6 +7801,11 @@
       <c r="AE69" t="n">
         <v>0.1444109211457518</v>
       </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7562,6 +7907,11 @@
       <c r="AE70" t="n">
         <v>0.6746031746031745</v>
       </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7663,6 +8013,11 @@
       <c r="AE71" t="n">
         <v>0.2726423902894491</v>
       </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7764,6 +8119,11 @@
       <c r="AE72" t="n">
         <v>0.579026158209896</v>
       </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7865,6 +8225,11 @@
       <c r="AE73" t="n">
         <v>0.3345004668534081</v>
       </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7966,6 +8331,11 @@
       <c r="AE74" t="n">
         <v>0.2095201437002823</v>
       </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8067,6 +8437,11 @@
       <c r="AE75" t="n">
         <v>0.2166452166452167</v>
       </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8168,6 +8543,11 @@
       <c r="AE76" t="n">
         <v>0.1217040770278008</v>
       </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8269,6 +8649,11 @@
       <c r="AE77" t="n">
         <v>0.2742175460970295</v>
       </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8370,6 +8755,11 @@
       <c r="AE78" t="n">
         <v>0.4655396181753381</v>
       </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8471,6 +8861,11 @@
       <c r="AE79" t="n">
         <v>0.1319547835676868</v>
       </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8572,6 +8967,11 @@
       <c r="AE80" t="n">
         <v>0.3775305895439378</v>
       </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8673,6 +9073,11 @@
       <c r="AE81" t="n">
         <v>0.123015873015873</v>
       </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8774,6 +9179,11 @@
       <c r="AE82" t="n">
         <v>0.4555474708276067</v>
       </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8875,6 +9285,11 @@
       <c r="AE83" t="n">
         <v>0.1432413305024769</v>
       </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8976,6 +9391,11 @@
       <c r="AE84" t="n">
         <v>0.4908702408702409</v>
       </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9077,6 +9497,11 @@
       <c r="AE85" t="n">
         <v>0.2166452166452167</v>
       </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9178,6 +9603,11 @@
       <c r="AE86" t="n">
         <v>0.4908702408702409</v>
       </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9279,6 +9709,11 @@
       <c r="AE87" t="n">
         <v>0.1681240693216741</v>
       </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9380,6 +9815,11 @@
       <c r="AE88" t="n">
         <v>0.3249158249158249</v>
       </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9481,6 +9921,11 @@
       <c r="AE89" t="n">
         <v>0.05445665445665447</v>
       </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9582,6 +10027,11 @@
       <c r="AE90" t="n">
         <v>0.1598952487841377</v>
       </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9683,6 +10133,11 @@
       <c r="AE91" t="n">
         <v>0.1460905349794238</v>
       </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9784,6 +10239,11 @@
       <c r="AE92" t="n">
         <v>0.1154684095860566</v>
       </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9885,6 +10345,11 @@
       <c r="AE93" t="n">
         <v>0.5077702983462147</v>
       </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9986,6 +10451,11 @@
       <c r="AE94" t="n">
         <v>0.1083959899749374</v>
       </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10087,6 +10557,11 @@
       <c r="AE95" t="n">
         <v>0.3390567765567766</v>
       </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10188,6 +10663,11 @@
       <c r="AE96" t="n">
         <v>0.1672253578966469</v>
       </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10289,6 +10769,11 @@
       <c r="AE97" t="n">
         <v>0.5073519631907513</v>
       </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10390,6 +10875,11 @@
       <c r="AE98" t="n">
         <v>0.1166666666666667</v>
       </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10491,6 +10981,11 @@
       <c r="AE99" t="n">
         <v>0.447162656464982</v>
       </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10592,6 +11087,11 @@
       <c r="AE100" t="n">
         <v>0.08270676691729324</v>
       </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10693,6 +11193,11 @@
       <c r="AE101" t="n">
         <v>0.4180116381203339</v>
       </c>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10794,6 +11299,11 @@
       <c r="AE102" t="n">
         <v>0.08621553884711786</v>
       </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10895,6 +11405,11 @@
       <c r="AE103" t="n">
         <v>0.328332769889565</v>
       </c>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10996,6 +11511,11 @@
       <c r="AE104" t="n">
         <v>0.1166666666666667</v>
       </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11097,6 +11617,11 @@
       <c r="AE105" t="n">
         <v>0.3994175627240144</v>
       </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11198,6 +11723,11 @@
       <c r="AE106" t="n">
         <v>0.2451602027982002</v>
       </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11299,6 +11829,11 @@
       <c r="AE107" t="n">
         <v>0.5370370370370371</v>
       </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11400,6 +11935,11 @@
       <c r="AE108" t="n">
         <v>0.4033543938667278</v>
       </c>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11501,6 +12041,11 @@
       <c r="AE109" t="n">
         <v>0.3465423465423466</v>
       </c>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11602,6 +12147,11 @@
       <c r="AE110" t="n">
         <v>0.4948384948384948</v>
       </c>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11703,6 +12253,11 @@
       <c r="AE111" t="n">
         <v>0.09286492374727667</v>
       </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11804,6 +12359,11 @@
       <c r="AE112" t="n">
         <v>0.5541026479241582</v>
       </c>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11905,6 +12465,11 @@
       <c r="AE113" t="n">
         <v>0.2768865121806298</v>
       </c>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12006,6 +12571,11 @@
       <c r="AE114" t="n">
         <v>0.4180116381203339</v>
       </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12107,6 +12677,11 @@
       <c r="AE115" t="n">
         <v>0.06010928961748631</v>
       </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12207,6 +12782,11 @@
       </c>
       <c r="AE116" t="n">
         <v>0.2251016260162602</v>
+      </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -12309,6 +12889,11 @@
       <c r="AE117" t="n">
         <v>0.4608946608946609</v>
       </c>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12410,6 +12995,11 @@
       <c r="AE118" t="n">
         <v>0.1483918128654971</v>
       </c>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12511,6 +13101,11 @@
       <c r="AE119" t="n">
         <v>0.2681344939409456</v>
       </c>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12612,6 +13207,11 @@
       <c r="AE120" t="n">
         <v>0.3933209647495362</v>
       </c>
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12713,6 +13313,11 @@
       <c r="AE121" t="n">
         <v>0.2677606631095003</v>
       </c>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12814,6 +13419,11 @@
       <c r="AE122" t="n">
         <v>0.5675954592363261</v>
       </c>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12915,6 +13525,11 @@
       <c r="AE123" t="n">
         <v>0.1331243742109616</v>
       </c>
+      <c r="AF123" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13016,6 +13631,11 @@
       <c r="AE124" t="n">
         <v>0.266729161340416</v>
       </c>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13117,6 +13737,11 @@
       <c r="AE125" t="n">
         <v>0.4287371101530393</v>
       </c>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13218,6 +13843,11 @@
       <c r="AE126" t="n">
         <v>0.4189703592112307</v>
       </c>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -13319,6 +13949,11 @@
       <c r="AE127" t="n">
         <v>0.2498168498168498</v>
       </c>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13420,6 +14055,11 @@
       <c r="AE128" t="n">
         <v>0.34926324173636</v>
       </c>
+      <c r="AF128" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13521,6 +14161,11 @@
       <c r="AE129" t="n">
         <v>0.2535836069714574</v>
       </c>
+      <c r="AF129" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13622,6 +14267,11 @@
       <c r="AE130" t="n">
         <v>0.08270676691729324</v>
       </c>
+      <c r="AF130" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13723,6 +14373,11 @@
       <c r="AE131" t="n">
         <v>0.2399971237560641</v>
       </c>
+      <c r="AF131" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13824,6 +14479,11 @@
       <c r="AE132" t="n">
         <v>0.03042328042328041</v>
       </c>
+      <c r="AF132" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13929,6 +14589,11 @@
       <c r="AE133" t="n">
         <v>0.3492063492063492</v>
       </c>
+      <c r="AF133" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14034,6 +14699,11 @@
       <c r="AE134" t="n">
         <v>0.2625121784000289</v>
       </c>
+      <c r="AF134" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14139,6 +14809,11 @@
       <c r="AE135" t="n">
         <v>0.115009746588694</v>
       </c>
+      <c r="AF135" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14244,6 +14919,11 @@
       <c r="AE136" t="n">
         <v>0.4176165146909828</v>
       </c>
+      <c r="AF136" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14349,6 +15029,11 @@
       <c r="AE137" t="n">
         <v>0.3609955766818512</v>
       </c>
+      <c r="AF137" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14454,6 +15139,11 @@
       <c r="AE138" t="n">
         <v>0.2770562770562771</v>
       </c>
+      <c r="AF138" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14559,6 +15249,11 @@
       <c r="AE139" t="n">
         <v>0.3908496732026144</v>
       </c>
+      <c r="AF139" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14663,6 +15358,11 @@
       </c>
       <c r="AE140" t="n">
         <v>0.2225920391251188</v>
+      </c>
+      <c r="AF140" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -14769,6 +15469,11 @@
       <c r="AE141" t="n">
         <v>0.1925925925925926</v>
       </c>
+      <c r="AF141" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14874,6 +15579,11 @@
       <c r="AE142" t="n">
         <v>0.4570291252534243</v>
       </c>
+      <c r="AF142" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14979,6 +15689,11 @@
       <c r="AE143" t="n">
         <v>0.4596746278989269</v>
       </c>
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15084,6 +15799,11 @@
       <c r="AE144" t="n">
         <v>0.3133694704522194</v>
       </c>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15189,6 +15909,11 @@
       <c r="AE145" t="n">
         <v>0.4271099744245525</v>
       </c>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15294,6 +16019,11 @@
       <c r="AE146" t="n">
         <v>0.1101077858043802</v>
       </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15399,6 +16129,11 @@
       <c r="AE147" t="n">
         <v>0.1907203907203908</v>
       </c>
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15504,6 +16239,11 @@
       <c r="AE148" t="n">
         <v>0.4458874458874459</v>
       </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15609,6 +16349,11 @@
       <c r="AE149" t="n">
         <v>0.3717368768259353</v>
       </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15714,6 +16459,11 @@
       <c r="AE150" t="n">
         <v>0.2030289398710451</v>
       </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -15819,6 +16569,11 @@
       <c r="AE151" t="n">
         <v>0.09172932330827069</v>
       </c>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -15924,6 +16679,11 @@
       <c r="AE152" t="n">
         <v>0.3045845997973657</v>
       </c>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16029,6 +16789,11 @@
       <c r="AE153" t="n">
         <v>0.180905695611578</v>
       </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16134,6 +16899,11 @@
       <c r="AE154" t="n">
         <v>0.5797998833400637</v>
       </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16239,6 +17009,11 @@
       <c r="AE155" t="n">
         <v>0.3372924648786718</v>
       </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16344,6 +17119,11 @@
       <c r="AE156" t="n">
         <v>0.1455247650899825</v>
       </c>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16449,6 +17229,11 @@
       <c r="AE157" t="n">
         <v>0.1452399281498589</v>
       </c>
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16554,6 +17339,11 @@
       <c r="AE158" t="n">
         <v>0.4089052287581699</v>
       </c>
+      <c r="AF158" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16659,6 +17449,11 @@
       <c r="AE159" t="n">
         <v>0.2535777112157086</v>
       </c>
+      <c r="AF159" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16764,6 +17559,11 @@
       <c r="AE160" t="n">
         <v>0.3990929705215419</v>
       </c>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -16869,6 +17669,11 @@
       <c r="AE161" t="n">
         <v>0.5936354112100577</v>
       </c>
+      <c r="AF161" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -16974,6 +17779,11 @@
       <c r="AE162" t="n">
         <v>0.241340530814215</v>
       </c>
+      <c r="AF162" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17079,6 +17889,11 @@
       <c r="AE163" t="n">
         <v>0.3615387924331014</v>
       </c>
+      <c r="AF163" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17184,6 +17999,11 @@
       <c r="AE164" t="n">
         <v>0.1895348837209302</v>
       </c>
+      <c r="AF164" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17289,6 +18109,11 @@
       <c r="AE165" t="n">
         <v>0.06622770345596431</v>
       </c>
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17394,6 +18219,11 @@
       <c r="AE166" t="n">
         <v>0.4907407407407408</v>
       </c>
+      <c r="AF166" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17499,6 +18329,11 @@
       <c r="AE167" t="n">
         <v>0.2770562770562771</v>
       </c>
+      <c r="AF167" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17604,6 +18439,11 @@
       <c r="AE168" t="n">
         <v>0.4083461341525857</v>
       </c>
+      <c r="AF168" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17709,6 +18549,11 @@
       <c r="AE169" t="n">
         <v>0.5786647992530346</v>
       </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17814,6 +18659,11 @@
       <c r="AE170" t="n">
         <v>0.2682416635905008</v>
       </c>
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -17919,6 +18769,11 @@
       <c r="AE171" t="n">
         <v>0.1337242107517886</v>
       </c>
+      <c r="AF171" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -18024,6 +18879,11 @@
       <c r="AE172" t="n">
         <v>0.4799651567944251</v>
       </c>
+      <c r="AF172" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -18129,6 +18989,11 @@
       <c r="AE173" t="n">
         <v>0.4666666666666667</v>
       </c>
+      <c r="AF173" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -18234,6 +19099,11 @@
       <c r="AE174" t="n">
         <v>0.1346991788168259</v>
       </c>
+      <c r="AF174" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18339,6 +19209,11 @@
       <c r="AE175" t="n">
         <v>0.09491866922207481</v>
       </c>
+      <c r="AF175" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -18444,6 +19319,11 @@
       <c r="AE176" t="n">
         <v>0.4900584795321638</v>
       </c>
+      <c r="AF176" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -18549,6 +19429,11 @@
       <c r="AE177" t="n">
         <v>0.2091024327562555</v>
       </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -18654,6 +19539,11 @@
       <c r="AE178" t="n">
         <v>0.6107453416149068</v>
       </c>
+      <c r="AF178" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -18759,6 +19649,11 @@
       <c r="AE179" t="n">
         <v>0.4118623085548361</v>
       </c>
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -18864,6 +19759,11 @@
       <c r="AE180" t="n">
         <v>0.1067251461988304</v>
       </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -18969,6 +19869,11 @@
       <c r="AE181" t="n">
         <v>0.5309653916211293</v>
       </c>
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -19074,6 +19979,11 @@
       <c r="AE182" t="n">
         <v>0.1726190476190476</v>
       </c>
+      <c r="AF182" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -19179,6 +20089,11 @@
       <c r="AE183" t="n">
         <v>0.4788359788359788</v>
       </c>
+      <c r="AF183" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -19284,6 +20199,11 @@
       <c r="AE184" t="n">
         <v>0.1576086956521739</v>
       </c>
+      <c r="AF184" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19389,6 +20309,11 @@
       <c r="AE185" t="n">
         <v>0.6495134324233631</v>
       </c>
+      <c r="AF185" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -19494,6 +20419,11 @@
       <c r="AE186" t="n">
         <v>0.1174603174603174</v>
       </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -19599,6 +20529,11 @@
       <c r="AE187" t="n">
         <v>0.6716459583973196</v>
       </c>
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -19704,6 +20639,11 @@
       <c r="AE188" t="n">
         <v>0.2091024327562555</v>
       </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -19809,6 +20749,11 @@
       <c r="AE189" t="n">
         <v>0.583728397298467</v>
       </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -19914,6 +20859,11 @@
       <c r="AE190" t="n">
         <v>0.09523809523809522</v>
       </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -20019,6 +20969,11 @@
       <c r="AE191" t="n">
         <v>0.4680603948896632</v>
       </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -20124,6 +21079,11 @@
       <c r="AE192" t="n">
         <v>0.4601618425147837</v>
       </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -20229,6 +21189,11 @@
       <c r="AE193" t="n">
         <v>0.123015873015873</v>
       </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -20334,6 +21299,11 @@
       <c r="AE194" t="n">
         <v>0.1153548706785945</v>
       </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -20439,6 +21409,11 @@
       <c r="AE195" t="n">
         <v>0.6495134324233631</v>
       </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -20544,6 +21519,11 @@
       <c r="AE196" t="n">
         <v>0.5524923419660261</v>
       </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -20649,6 +21629,11 @@
       <c r="AE197" t="n">
         <v>0.06581196581196587</v>
       </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -20754,6 +21739,11 @@
       <c r="AE198" t="n">
         <v>0.6381107998755058</v>
       </c>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -20859,6 +21849,11 @@
       <c r="AE199" t="n">
         <v>0.09999999999999999</v>
       </c>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -20964,6 +21959,11 @@
       <c r="AE200" t="n">
         <v>0.08621553884711786</v>
       </c>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -21069,6 +22069,11 @@
       <c r="AE201" t="n">
         <v>0.4825396825396825</v>
       </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -21174,6 +22179,11 @@
       <c r="AE202" t="n">
         <v>0.1083959899749374</v>
       </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -21279,6 +22289,11 @@
       <c r="AE203" t="n">
         <v>0.583728397298467</v>
       </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -21384,6 +22399,11 @@
       <c r="AE204" t="n">
         <v>0.3969278768417936</v>
       </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -21489,6 +22509,11 @@
       <c r="AE205" t="n">
         <v>0.1487968860580326</v>
       </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -21594,6 +22619,11 @@
       <c r="AE206" t="n">
         <v>0.5547415547415547</v>
       </c>
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -21699,6 +22729,11 @@
       <c r="AE207" t="n">
         <v>0.1273731714908185</v>
       </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -21804,6 +22839,11 @@
       <c r="AE208" t="n">
         <v>0.09213392959522994</v>
       </c>
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -21909,6 +22949,11 @@
       <c r="AE209" t="n">
         <v>0.4945054945054945</v>
       </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -22014,6 +23059,11 @@
       <c r="AE210" t="n">
         <v>0.3262902862294343</v>
       </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -22119,6 +23169,11 @@
       <c r="AE211" t="n">
         <v>0.1136321195144725</v>
       </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -22224,6 +23279,11 @@
       <c r="AE212" t="n">
         <v>0.07291666666666667</v>
       </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -22329,6 +23389,11 @@
       <c r="AE213" t="n">
         <v>0.5890483785220627</v>
       </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -22434,6 +23499,11 @@
       <c r="AE214" t="n">
         <v>0.6748388064177538</v>
       </c>
+      <c r="AF214" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -22539,6 +23609,11 @@
       <c r="AE215" t="n">
         <v>0.08823529411764708</v>
       </c>
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -22644,6 +23719,11 @@
       <c r="AE216" t="n">
         <v>0.6013358622054273</v>
       </c>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -22749,6 +23829,11 @@
       <c r="AE217" t="n">
         <v>0.1921356936836812</v>
       </c>
+      <c r="AF217" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -22854,6 +23939,11 @@
       <c r="AE218" t="n">
         <v>0.07171717171717171</v>
       </c>
+      <c r="AF218" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -22959,6 +24049,11 @@
       <c r="AE219" t="n">
         <v>0.583728397298467</v>
       </c>
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -23064,6 +24159,11 @@
       <c r="AE220" t="n">
         <v>0.1113756613756614</v>
       </c>
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -23169,6 +24269,11 @@
       <c r="AE221" t="n">
         <v>0.5696930946291561</v>
       </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -23274,6 +24379,11 @@
       <c r="AE222" t="n">
         <v>0.07897727272727269</v>
       </c>
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -23379,6 +24489,11 @@
       <c r="AE223" t="n">
         <v>0.08753654970760234</v>
       </c>
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -23484,6 +24599,11 @@
       <c r="AE224" t="n">
         <v>0.156765939374635</v>
       </c>
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -23589,6 +24709,11 @@
       <c r="AE225" t="n">
         <v>0.3633193684084269</v>
       </c>
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -23694,6 +24819,11 @@
       <c r="AE226" t="n">
         <v>0.715592903828198</v>
       </c>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -23799,6 +24929,11 @@
       <c r="AE227" t="n">
         <v>0.3312779361559849</v>
       </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -23904,6 +25039,11 @@
       <c r="AE228" t="n">
         <v>0.2838630204483863</v>
       </c>
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -24009,6 +25149,11 @@
       <c r="AE229" t="n">
         <v>0.3618603336160588</v>
       </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -24114,6 +25259,11 @@
       <c r="AE230" t="n">
         <v>0.3912589426014308</v>
       </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -24219,6 +25369,11 @@
       <c r="AE231" t="n">
         <v>0.4363636363636364</v>
       </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -24324,6 +25479,11 @@
       <c r="AE232" t="n">
         <v>0.2598590493327335</v>
       </c>
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -24429,6 +25589,11 @@
       <c r="AE233" t="n">
         <v>0.1481481481481481</v>
       </c>
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -24534,6 +25699,11 @@
       <c r="AE234" t="n">
         <v>0.303258246994181</v>
       </c>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -24639,6 +25809,11 @@
       <c r="AE235" t="n">
         <v>0.2134883976685362</v>
       </c>
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -24744,6 +25919,11 @@
       <c r="AE236" t="n">
         <v>0.2036959745577125</v>
       </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -24849,6 +26029,11 @@
       <c r="AE237" t="n">
         <v>0.2101661385323236</v>
       </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -24954,6 +26139,11 @@
       <c r="AE238" t="n">
         <v>0.4814814814814815</v>
       </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -25059,6 +26249,11 @@
       <c r="AE239" t="n">
         <v>0.2202864885791715</v>
       </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -25164,6 +26359,11 @@
       <c r="AE240" t="n">
         <v>0.2754435107376284</v>
       </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -25269,6 +26469,11 @@
       <c r="AE241" t="n">
         <v>0.5205043099779941</v>
       </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -25374,6 +26579,11 @@
       <c r="AE242" t="n">
         <v>0.2235449735449735</v>
       </c>
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -25479,6 +26689,11 @@
       <c r="AE243" t="n">
         <v>0.3516754850088183</v>
       </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -25584,6 +26799,11 @@
       <c r="AE244" t="n">
         <v>0.2191590086326928</v>
       </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -25689,6 +26909,11 @@
       <c r="AE245" t="n">
         <v>0.2301313392771547</v>
       </c>
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -25794,6 +27019,11 @@
       <c r="AE246" t="n">
         <v>0.3138984784554405</v>
       </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -25899,6 +27129,11 @@
       <c r="AE247" t="n">
         <v>0.3050008533879501</v>
       </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -26004,6 +27239,11 @@
       <c r="AE248" t="n">
         <v>0.2940353143841516</v>
       </c>
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -26109,6 +27349,11 @@
       <c r="AE249" t="n">
         <v>0.268615305200671</v>
       </c>
+      <c r="AF249" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -26214,6 +27459,11 @@
       <c r="AE250" t="n">
         <v>0.5719814241486069</v>
       </c>
+      <c r="AF250" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -26319,6 +27569,11 @@
       <c r="AE251" t="n">
         <v>0.316869363779267</v>
       </c>
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -26424,6 +27679,11 @@
       <c r="AE252" t="n">
         <v>0.1366929196028503</v>
       </c>
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -26529,6 +27789,11 @@
       <c r="AE253" t="n">
         <v>0.08161231884057972</v>
       </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -26634,6 +27899,11 @@
       <c r="AE254" t="n">
         <v>0.5838833908897072</v>
       </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -26739,6 +28009,11 @@
       <c r="AE255" t="n">
         <v>0.5515873015873015</v>
       </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -26844,6 +28119,11 @@
       <c r="AE256" t="n">
         <v>0.2659698025551683</v>
       </c>
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -26949,6 +28229,11 @@
       <c r="AE257" t="n">
         <v>0.4809081527347781</v>
       </c>
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -27054,6 +28339,11 @@
       <c r="AE258" t="n">
         <v>0.4577380952380952</v>
       </c>
+      <c r="AF258" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -27159,6 +28449,11 @@
       <c r="AE259" t="n">
         <v>0.3838109602815484</v>
       </c>
+      <c r="AF259" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -27263,6 +28558,11 @@
       </c>
       <c r="AE260" t="n">
         <v>0.1343101343101343</v>
+      </c>
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
       </c>
     </row>
   </sheetData>
